--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value94.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value94.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.016851456532461</v>
+        <v>2.271826505661011</v>
       </c>
       <c r="B1">
-        <v>1.381827810024142</v>
+        <v>4.877838611602783</v>
       </c>
       <c r="C1">
-        <v>2.334310943289894</v>
+        <v>3.216334581375122</v>
       </c>
       <c r="D1">
-        <v>5.384539171583882</v>
+        <v>2.448996067047119</v>
       </c>
       <c r="E1">
-        <v>1.244372634311962</v>
+        <v>2.015807867050171</v>
       </c>
     </row>
   </sheetData>
